--- a/Tables/2_2_1_normal_vars_t_tests.xlsx
+++ b/Tables/2_2_1_normal_vars_t_tests.xlsx
@@ -637,7 +637,7 @@
         <v>0.0003037441075984679</v>
       </c>
       <c r="H6" t="n">
-        <v>0.005567733140128304</v>
+        <v>0.005567733140128301</v>
       </c>
     </row>
     <row r="7">
@@ -668,10 +668,10 @@
         <v>1.074968369140048</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2853616962203568</v>
+        <v>0.285361696220357</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5129507790954881</v>
+        <v>0.5129507790954884</v>
       </c>
     </row>
     <row r="8">
@@ -909,7 +909,7 @@
         <v>0.1178538727333891</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3231186662929028</v>
+        <v>0.3231186662929029</v>
       </c>
     </row>
     <row r="15">
@@ -1045,7 +1045,7 @@
         <v>0.1816533677092504</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4008686214619836</v>
+        <v>0.4008686214619837</v>
       </c>
     </row>
     <row r="19">
@@ -1178,10 +1178,10 @@
         <v>-1.689344268000458</v>
       </c>
       <c r="G22" t="n">
-        <v>0.09494990572316174</v>
+        <v>0.09494990572316177</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2754487364048157</v>
+        <v>0.2754487364048158</v>
       </c>
     </row>
     <row r="23">
@@ -1215,7 +1215,7 @@
         <v>0.002767325993165256</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02615569406443291</v>
+        <v>0.0261556940644329</v>
       </c>
     </row>
     <row r="24">
@@ -1351,7 +1351,7 @@
         <v>0.1791837385341176</v>
       </c>
       <c r="H27" t="n">
-        <v>0.4008686214619836</v>
+        <v>0.4008686214619837</v>
       </c>
     </row>
     <row r="28">
@@ -1450,7 +1450,7 @@
         <v>2.284805026319511</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02498491139056302</v>
+        <v>0.02498491139056301</v>
       </c>
       <c r="H30" t="n">
         <v>0.1248551470207716</v>
@@ -1620,10 +1620,10 @@
         <v>-1.57759511961606</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1184114867906276</v>
+        <v>0.1184114867906277</v>
       </c>
       <c r="H35" t="n">
-        <v>0.3231186662929028</v>
+        <v>0.3231186662929029</v>
       </c>
     </row>
     <row r="36">
@@ -1926,7 +1926,7 @@
         <v>-1.039925596488297</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3012594539602913</v>
+        <v>0.3012594539602914</v>
       </c>
       <c r="H44" t="n">
         <v>0.5254108333950319</v>
@@ -1997,7 +1997,7 @@
         <v>0.151334439517997</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3716994062636233</v>
+        <v>0.3716994062636234</v>
       </c>
     </row>
     <row r="47">
@@ -2776,7 +2776,7 @@
         <v>4.13026301470429</v>
       </c>
       <c r="G69" t="n">
-        <v>7.76217669417991e-05</v>
+        <v>7.762176694179907e-05</v>
       </c>
       <c r="H69" t="n">
         <v>0.00233351311189603</v>
@@ -2844,10 +2844,10 @@
         <v>3.303611982360867</v>
       </c>
       <c r="G71" t="n">
-        <v>0.001340535921731945</v>
+        <v>0.001340535921731944</v>
       </c>
       <c r="H71" t="n">
-        <v>0.01510680865644076</v>
+        <v>0.01510680865644075</v>
       </c>
     </row>
     <row r="72">
@@ -2878,7 +2878,7 @@
         <v>-4.309304083227995</v>
       </c>
       <c r="G72" t="n">
-        <v>3.933711011778768e-05</v>
+        <v>3.933711011778769e-05</v>
       </c>
       <c r="H72" t="n">
         <v>0.001742979664900033</v>
@@ -2946,10 +2946,10 @@
         <v>4.060134871731655</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0001019533334109504</v>
+        <v>0.0001019533334109503</v>
       </c>
       <c r="H74" t="n">
-        <v>0.002715666062673496</v>
+        <v>0.002715666062673495</v>
       </c>
     </row>
     <row r="75">
@@ -3218,7 +3218,7 @@
         <v>2.23931652921638</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02747081995842212</v>
+        <v>0.02747081995842211</v>
       </c>
       <c r="H82" t="n">
         <v>0.13162073177592</v>
@@ -3252,10 +3252,10 @@
         <v>-2.821187335502809</v>
       </c>
       <c r="G83" t="n">
-        <v>0.005804652567599232</v>
+        <v>0.005804652567599235</v>
       </c>
       <c r="H83" t="n">
-        <v>0.04596657303531284</v>
+        <v>0.04596657303531286</v>
       </c>
     </row>
     <row r="84">
@@ -3286,10 +3286,10 @@
         <v>-1.782622912227531</v>
       </c>
       <c r="G84" t="n">
-        <v>0.07777628759101438</v>
+        <v>0.0777762875910144</v>
       </c>
       <c r="H84" t="n">
-        <v>0.2424303432358214</v>
+        <v>0.2424303432358215</v>
       </c>
     </row>
     <row r="85">
@@ -3323,7 +3323,7 @@
         <v>0.1522318387427809</v>
       </c>
       <c r="H85" t="n">
-        <v>0.3716994062636233</v>
+        <v>0.3716994062636234</v>
       </c>
     </row>
     <row r="86">
@@ -3354,7 +3354,7 @@
         <v>-4.384496559293985</v>
       </c>
       <c r="G86" t="n">
-        <v>2.993946664020597e-05</v>
+        <v>2.993946664020602e-05</v>
       </c>
       <c r="H86" t="n">
         <v>0.001742979664900033</v>
@@ -3391,7 +3391,7 @@
         <v>0.001618348637881034</v>
       </c>
       <c r="H87" t="n">
-        <v>0.01693486253211224</v>
+        <v>0.01693486253211225</v>
       </c>
     </row>
     <row r="88">
@@ -3422,10 +3422,10 @@
         <v>2.587228675425223</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01116291452200347</v>
+        <v>0.01116291452200346</v>
       </c>
       <c r="H88" t="n">
-        <v>0.07268297677660035</v>
+        <v>0.07268297677660034</v>
       </c>
     </row>
     <row r="89">
@@ -3524,7 +3524,7 @@
         <v>-4.146584880290766</v>
       </c>
       <c r="G91" t="n">
-        <v>7.458256155581836e-05</v>
+        <v>7.458256155581834e-05</v>
       </c>
       <c r="H91" t="n">
         <v>0.00233351311189603</v>
@@ -3592,10 +3592,10 @@
         <v>-1.568193864676448</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1201672015257779</v>
+        <v>0.120167201525778</v>
       </c>
       <c r="H93" t="n">
-        <v>0.3231186662929028</v>
+        <v>0.3231186662929029</v>
       </c>
     </row>
     <row r="94">
@@ -3660,7 +3660,7 @@
         <v>-2.63726618976825</v>
       </c>
       <c r="G95" t="n">
-        <v>0.00978251057286302</v>
+        <v>0.009782510572863019</v>
       </c>
       <c r="H95" t="n">
         <v>0.06588561992603105</v>
@@ -3694,7 +3694,7 @@
         <v>-4.529597309074743</v>
       </c>
       <c r="G96" t="n">
-        <v>1.84661702709905e-05</v>
+        <v>1.846617027099051e-05</v>
       </c>
       <c r="H96" t="n">
         <v>0.001720442794118883</v>
@@ -3935,7 +3935,7 @@
         <v>0.2908880415961391</v>
       </c>
       <c r="H103" t="n">
-        <v>0.5134349167931852</v>
+        <v>0.5134349167931853</v>
       </c>
     </row>
     <row r="104">
@@ -3969,7 +3969,7 @@
         <v>0.1405922950107516</v>
       </c>
       <c r="H104" t="n">
-        <v>0.352220922736059</v>
+        <v>0.3522209227360591</v>
       </c>
     </row>
     <row r="105">
@@ -4034,7 +4034,7 @@
         <v>4.710475901236488</v>
       </c>
       <c r="G106" t="n">
-        <v>8.266479905901807e-06</v>
+        <v>8.26647990590181e-06</v>
       </c>
       <c r="H106" t="n">
         <v>0.001211039306214615</v>
@@ -4068,10 +4068,10 @@
         <v>3.540886253012494</v>
       </c>
       <c r="G107" t="n">
-        <v>0.000619465649414556</v>
+        <v>0.0006194656494145558</v>
       </c>
       <c r="H107" t="n">
-        <v>0.008643020727545948</v>
+        <v>0.008643020727545945</v>
       </c>
     </row>
     <row r="108">
@@ -4102,10 +4102,10 @@
         <v>-1.098429886095697</v>
       </c>
       <c r="G108" t="n">
-        <v>0.2747389620431452</v>
+        <v>0.2747389620431453</v>
       </c>
       <c r="H108" t="n">
-        <v>0.5031157242415097</v>
+        <v>0.5031157242415099</v>
       </c>
     </row>
     <row r="109">
@@ -4204,10 +4204,10 @@
         <v>1.784179592701068</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07755618832291561</v>
+        <v>0.0775561883229156</v>
       </c>
       <c r="H111" t="n">
-        <v>0.2424303432358214</v>
+        <v>0.2424303432358215</v>
       </c>
     </row>
     <row r="112">
@@ -4275,7 +4275,7 @@
         <v>0.09442287390179052</v>
       </c>
       <c r="H113" t="n">
-        <v>0.2754487364048157</v>
+        <v>0.2754487364048158</v>
       </c>
     </row>
     <row r="114">
@@ -4309,7 +4309,7 @@
         <v>0.01521069010264433</v>
       </c>
       <c r="H114" t="n">
-        <v>0.08913464400149579</v>
+        <v>0.08913464400149576</v>
       </c>
     </row>
     <row r="115">
@@ -4377,7 +4377,7 @@
         <v>0.008964311526140649</v>
       </c>
       <c r="H116" t="n">
-        <v>0.06293578439802675</v>
+        <v>0.06293578439802673</v>
       </c>
     </row>
     <row r="117">
@@ -4408,10 +4408,10 @@
         <v>1.486386279825962</v>
       </c>
       <c r="G117" t="n">
-        <v>0.1406479452563785</v>
+        <v>0.1406479452563786</v>
       </c>
       <c r="H117" t="n">
-        <v>0.352220922736059</v>
+        <v>0.3522209227360591</v>
       </c>
     </row>
     <row r="118">
@@ -4544,7 +4544,7 @@
         <v>2.200981166900311</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03012176704795041</v>
+        <v>0.03012176704795042</v>
       </c>
       <c r="H121" t="n">
         <v>0.1400901229372932</v>
@@ -4615,7 +4615,7 @@
         <v>0.1847005593766819</v>
       </c>
       <c r="H123" t="n">
-        <v>0.4008686214619836</v>
+        <v>0.4008686214619837</v>
       </c>
     </row>
     <row r="124">
@@ -4646,7 +4646,7 @@
         <v>2.106695559201384</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03772983138822169</v>
+        <v>0.03772983138822168</v>
       </c>
       <c r="H124" t="n">
         <v>0.1608728570532052</v>
@@ -4714,7 +4714,7 @@
         <v>2.556640283482953</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0121588708997438</v>
+        <v>0.01215887089974379</v>
       </c>
       <c r="H126" t="n">
         <v>0.07498405149666489</v>
@@ -4751,7 +4751,7 @@
         <v>0.2117324826108195</v>
       </c>
       <c r="H127" t="n">
-        <v>0.4368846296124655</v>
+        <v>0.4368846296124656</v>
       </c>
     </row>
     <row r="128">
@@ -4850,10 +4850,10 @@
         <v>3.72947634182577</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0003230425371405501</v>
+        <v>0.0003230425371405499</v>
       </c>
       <c r="H130" t="n">
-        <v>0.005567733140128304</v>
+        <v>0.005567733140128301</v>
       </c>
     </row>
     <row r="131">
@@ -4918,10 +4918,10 @@
         <v>3.744804789904985</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0003066137184800536</v>
+        <v>0.0003066137184800537</v>
       </c>
       <c r="H132" t="n">
-        <v>0.005567733140128304</v>
+        <v>0.005567733140128301</v>
       </c>
     </row>
     <row r="133">
@@ -5023,7 +5023,7 @@
         <v>0.1837430076895473</v>
       </c>
       <c r="H135" t="n">
-        <v>0.4008686214619836</v>
+        <v>0.4008686214619837</v>
       </c>
     </row>
     <row r="136">
@@ -5054,10 +5054,10 @@
         <v>2.145731956964567</v>
       </c>
       <c r="G136" t="n">
-        <v>0.03448096115861463</v>
+        <v>0.03448096115861462</v>
       </c>
       <c r="H136" t="n">
-        <v>0.1551598250517574</v>
+        <v>0.1551598250517573</v>
       </c>
     </row>
     <row r="137">
@@ -5088,10 +5088,10 @@
         <v>3.789615738676278</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0002620067396075705</v>
+        <v>0.0002620067396075706</v>
       </c>
       <c r="H137" t="n">
-        <v>0.005483426764644154</v>
+        <v>0.005483426764644155</v>
       </c>
     </row>
     <row r="138">
@@ -5292,10 +5292,10 @@
         <v>1.353477761453836</v>
       </c>
       <c r="G143" t="n">
-        <v>0.17907764106553</v>
+        <v>0.1790776410655299</v>
       </c>
       <c r="H143" t="n">
-        <v>0.4008686214619836</v>
+        <v>0.4008686214619837</v>
       </c>
     </row>
     <row r="144">
@@ -5465,7 +5465,7 @@
         <v>0.008702962331202768</v>
       </c>
       <c r="H148" t="n">
-        <v>0.06293578439802675</v>
+        <v>0.06293578439802673</v>
       </c>
     </row>
     <row r="149">
@@ -5499,7 +5499,7 @@
         <v>0.001290767146589232</v>
       </c>
       <c r="H149" t="n">
-        <v>0.01510680865644076</v>
+        <v>0.01510680865644075</v>
       </c>
     </row>
     <row r="150">
@@ -5530,10 +5530,10 @@
         <v>-1.349636270578069</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1804496761396273</v>
+        <v>0.1804496761396274</v>
       </c>
       <c r="H150" t="n">
-        <v>0.4008686214619836</v>
+        <v>0.4008686214619837</v>
       </c>
     </row>
     <row r="151">
@@ -5567,7 +5567,7 @@
         <v>0.01982340339386445</v>
       </c>
       <c r="H151" t="n">
-        <v>0.1075708639347</v>
+        <v>0.1075708639347001</v>
       </c>
     </row>
     <row r="152">
@@ -5635,7 +5635,7 @@
         <v>0.1352811104727734</v>
       </c>
       <c r="H153" t="n">
-        <v>0.3446727423349791</v>
+        <v>0.3446727423349792</v>
       </c>
     </row>
     <row r="154">
@@ -5666,7 +5666,7 @@
         <v>1.764353806798494</v>
       </c>
       <c r="G154" t="n">
-        <v>0.08088963517636413</v>
+        <v>0.08088963517636409</v>
       </c>
       <c r="H154" t="n">
         <v>0.249429335411627</v>
@@ -5768,10 +5768,10 @@
         <v>1.374426595457576</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1724871139014361</v>
+        <v>0.172487113901436</v>
       </c>
       <c r="H157" t="n">
-        <v>0.3979427115993761</v>
+        <v>0.397942711599376</v>
       </c>
     </row>
     <row r="158">
@@ -5941,7 +5941,7 @@
         <v>0.2875217155604247</v>
       </c>
       <c r="H162" t="n">
-        <v>0.5134349167931852</v>
+        <v>0.5134349167931853</v>
       </c>
     </row>
     <row r="163">
@@ -5972,10 +5972,10 @@
         <v>-2.138954802065915</v>
       </c>
       <c r="G163" t="n">
-        <v>0.03495067731541293</v>
+        <v>0.03495067731541292</v>
       </c>
       <c r="H163" t="n">
-        <v>0.1551598250517574</v>
+        <v>0.1551598250517573</v>
       </c>
     </row>
     <row r="164">
@@ -6040,10 +6040,10 @@
         <v>1.422503760798898</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1581065890903584</v>
+        <v>0.1581065890903585</v>
       </c>
       <c r="H165" t="n">
-        <v>0.3766278910851628</v>
+        <v>0.3766278910851629</v>
       </c>
     </row>
     <row r="166">
@@ -6074,10 +6074,10 @@
         <v>-1.122031152042378</v>
       </c>
       <c r="G166" t="n">
-        <v>0.2648440549476502</v>
+        <v>0.2648440549476501</v>
       </c>
       <c r="H166" t="n">
-        <v>0.4911348613902626</v>
+        <v>0.4911348613902625</v>
       </c>
     </row>
     <row r="167">
@@ -6111,7 +6111,7 @@
         <v>0.07523368063667185</v>
       </c>
       <c r="H167" t="n">
-        <v>0.2397107821252269</v>
+        <v>0.2397107821252268</v>
       </c>
     </row>
     <row r="168">
@@ -6142,10 +6142,10 @@
         <v>-5.347677368817099</v>
       </c>
       <c r="G168" t="n">
-        <v>6.08055494826469e-07</v>
+        <v>6.080554948264692e-07</v>
       </c>
       <c r="H168" t="n">
-        <v>0.0001781602599841554</v>
+        <v>0.0001781602599841555</v>
       </c>
     </row>
     <row r="169">
@@ -6210,7 +6210,7 @@
         <v>-2.304889557033297</v>
       </c>
       <c r="G170" t="n">
-        <v>0.02330984455488332</v>
+        <v>0.02330984455488331</v>
       </c>
       <c r="H170" t="n">
         <v>0.1228945134400003</v>
@@ -6247,7 +6247,7 @@
         <v>0.1845844811769143</v>
       </c>
       <c r="H171" t="n">
-        <v>0.4008686214619836</v>
+        <v>0.4008686214619837</v>
       </c>
     </row>
     <row r="172">
@@ -6281,7 +6281,7 @@
         <v>0.2397179480761583</v>
       </c>
       <c r="H172" t="n">
-        <v>0.4620878867520683</v>
+        <v>0.4620878867520684</v>
       </c>
     </row>
     <row r="173">
@@ -6346,10 +6346,10 @@
         <v>-2.665853318767189</v>
       </c>
       <c r="G174" t="n">
-        <v>0.009021511756713731</v>
+        <v>0.009021511756713729</v>
       </c>
       <c r="H174" t="n">
-        <v>0.06293578439802675</v>
+        <v>0.06293578439802673</v>
       </c>
     </row>
     <row r="175">
@@ -6482,7 +6482,7 @@
         <v>-1.821110554139532</v>
       </c>
       <c r="G178" t="n">
-        <v>0.07189843071243915</v>
+        <v>0.07189843071243911</v>
       </c>
       <c r="H178" t="n">
         <v>0.2371610542584098</v>
@@ -6516,10 +6516,10 @@
         <v>-1.511102097311974</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1340142621867984</v>
+        <v>0.1340142621867985</v>
       </c>
       <c r="H179" t="n">
-        <v>0.3446727423349791</v>
+        <v>0.3446727423349792</v>
       </c>
     </row>
     <row r="180">
@@ -6584,7 +6584,7 @@
         <v>1.995713791018604</v>
       </c>
       <c r="G181" t="n">
-        <v>0.04887437201078831</v>
+        <v>0.04887437201078832</v>
       </c>
       <c r="H181" t="n">
         <v>0.1835921922969356</v>
@@ -6618,10 +6618,10 @@
         <v>-2.370637729735161</v>
       </c>
       <c r="G182" t="n">
-        <v>0.01982534693677065</v>
+        <v>0.01982534693677066</v>
       </c>
       <c r="H182" t="n">
-        <v>0.1075708639347</v>
+        <v>0.1075708639347001</v>
       </c>
     </row>
     <row r="183">
@@ -6992,10 +6992,10 @@
         <v>2.176547317255791</v>
       </c>
       <c r="G193" t="n">
-        <v>0.0319417125162352</v>
+        <v>0.03194171251623519</v>
       </c>
       <c r="H193" t="n">
-        <v>0.1462331526133893</v>
+        <v>0.1462331526133892</v>
       </c>
     </row>
     <row r="194">
@@ -7026,10 +7026,10 @@
         <v>-1.719967970281089</v>
       </c>
       <c r="G194" t="n">
-        <v>0.08865258992708275</v>
+        <v>0.08865258992708271</v>
       </c>
       <c r="H194" t="n">
-        <v>0.2650531515166862</v>
+        <v>0.2650531515166861</v>
       </c>
     </row>
     <row r="195">
@@ -7267,7 +7267,7 @@
         <v>0.3202069905811937</v>
       </c>
       <c r="H201" t="n">
-        <v>0.5423158857820217</v>
+        <v>0.5423158857820216</v>
       </c>
     </row>
     <row r="202">
@@ -7332,7 +7332,7 @@
         <v>1.222178222894377</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2246336927285687</v>
+        <v>0.2246336927285688</v>
       </c>
       <c r="H203" t="n">
         <v>0.4446181308323251</v>
@@ -7437,7 +7437,7 @@
         <v>0.1206654907777385</v>
       </c>
       <c r="H206" t="n">
-        <v>0.3231186662929028</v>
+        <v>0.3231186662929029</v>
       </c>
     </row>
     <row r="207">
@@ -7536,7 +7536,7 @@
         <v>-1.248016097166784</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2150948808624407</v>
+        <v>0.2150948808624408</v>
       </c>
       <c r="H209" t="n">
         <v>0.4379970166966136</v>
@@ -7607,7 +7607,7 @@
         <v>0.00035307310567917</v>
       </c>
       <c r="H211" t="n">
-        <v>0.005747245553555378</v>
+        <v>0.005747245553555379</v>
       </c>
     </row>
     <row r="212">
@@ -7706,7 +7706,7 @@
         <v>-4.128004845723478</v>
       </c>
       <c r="G214" t="n">
-        <v>7.964208573023994e-05</v>
+        <v>7.964208573023993e-05</v>
       </c>
       <c r="H214" t="n">
         <v>0.00233351311189603</v>
@@ -7845,7 +7845,7 @@
         <v>0.2892325670291637</v>
       </c>
       <c r="H218" t="n">
-        <v>0.5134349167931852</v>
+        <v>0.5134349167931853</v>
       </c>
     </row>
     <row r="219">
@@ -7879,7 +7879,7 @@
         <v>0.004079309070055001</v>
       </c>
       <c r="H219" t="n">
-        <v>0.0373511736726911</v>
+        <v>0.03735117367269111</v>
       </c>
     </row>
     <row r="220">
@@ -7944,10 +7944,10 @@
         <v>3.628628452205442</v>
       </c>
       <c r="G221" t="n">
-        <v>0.0004568756030280132</v>
+        <v>0.0004568756030280131</v>
       </c>
       <c r="H221" t="n">
-        <v>0.006693227584360394</v>
+        <v>0.006693227584360392</v>
       </c>
     </row>
     <row r="222">
@@ -8049,7 +8049,7 @@
         <v>0.001503470900203739</v>
       </c>
       <c r="H224" t="n">
-        <v>0.01631544347258132</v>
+        <v>0.01631544347258131</v>
       </c>
     </row>
     <row r="225">
@@ -8182,7 +8182,7 @@
         <v>2.920153176235853</v>
       </c>
       <c r="G228" t="n">
-        <v>0.004362138284008872</v>
+        <v>0.004362138284008873</v>
       </c>
       <c r="H228" t="n">
         <v>0.03787276632195786</v>
@@ -8386,7 +8386,7 @@
         <v>1.913006398500183</v>
       </c>
       <c r="G234" t="n">
-        <v>0.0590439568745401</v>
+        <v>0.05904395687454011</v>
       </c>
       <c r="H234" t="n">
         <v>0.213578757583213</v>
@@ -8556,7 +8556,7 @@
         <v>1.42910528392793</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1562223577394499</v>
+        <v>0.15622235773945</v>
       </c>
       <c r="H239" t="n">
         <v>0.3758128200465279</v>
@@ -8658,7 +8658,7 @@
         <v>1.898940929922177</v>
       </c>
       <c r="G242" t="n">
-        <v>0.06056001945440175</v>
+        <v>0.06056001945440174</v>
       </c>
       <c r="H242" t="n">
         <v>0.215568228806281</v>
@@ -8760,10 +8760,10 @@
         <v>1.798516341623964</v>
       </c>
       <c r="G245" t="n">
-        <v>0.07526754933624871</v>
+        <v>0.07526754933624868</v>
       </c>
       <c r="H245" t="n">
-        <v>0.2397107821252269</v>
+        <v>0.2397107821252268</v>
       </c>
     </row>
     <row r="246">
@@ -8899,7 +8899,7 @@
         <v>0.1213073491202024</v>
       </c>
       <c r="H249" t="n">
-        <v>0.3231186662929028</v>
+        <v>0.3231186662929029</v>
       </c>
     </row>
     <row r="250">
@@ -8930,7 +8930,7 @@
         <v>1.86236266923809</v>
       </c>
       <c r="G250" t="n">
-        <v>0.06609837106198195</v>
+        <v>0.06609837106198192</v>
       </c>
       <c r="H250" t="n">
         <v>0.2303572673459462</v>
@@ -8964,10 +8964,10 @@
         <v>1.971890643497899</v>
       </c>
       <c r="G251" t="n">
-        <v>0.05155242554967766</v>
+        <v>0.05155242554967767</v>
       </c>
       <c r="H251" t="n">
-        <v>0.1912007681779184</v>
+        <v>0.1912007681779185</v>
       </c>
     </row>
     <row r="252">
@@ -9032,10 +9032,10 @@
         <v>1.583814556034735</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1164927281883172</v>
+        <v>0.1164927281883173</v>
       </c>
       <c r="H253" t="n">
-        <v>0.3231186662929028</v>
+        <v>0.3231186662929029</v>
       </c>
     </row>
     <row r="254">
@@ -9103,7 +9103,7 @@
         <v>0.182900101297206</v>
       </c>
       <c r="H255" t="n">
-        <v>0.4008686214619836</v>
+        <v>0.4008686214619837</v>
       </c>
     </row>
     <row r="256">
@@ -9134,7 +9134,7 @@
         <v>-1.215934304405366</v>
       </c>
       <c r="G256" t="n">
-        <v>0.2279718195255383</v>
+        <v>0.2279718195255384</v>
       </c>
       <c r="H256" t="n">
         <v>0.4446181308323251</v>
@@ -9239,7 +9239,7 @@
         <v>0.1341283145735082</v>
       </c>
       <c r="H259" t="n">
-        <v>0.3446727423349791</v>
+        <v>0.3446727423349792</v>
       </c>
     </row>
     <row r="260">
@@ -9474,7 +9474,7 @@
         <v>-2.117696398470282</v>
       </c>
       <c r="G266" t="n">
-        <v>0.03727685276351342</v>
+        <v>0.03727685276351341</v>
       </c>
       <c r="H266" t="n">
         <v>0.1608728570532052</v>
@@ -9542,7 +9542,7 @@
         <v>-2.032540920182351</v>
       </c>
       <c r="G268" t="n">
-        <v>0.04538736766397806</v>
+        <v>0.04538736766397805</v>
       </c>
       <c r="H268" t="n">
         <v>0.1762553769421523</v>
@@ -9780,10 +9780,10 @@
         <v>-1.387282037976957</v>
       </c>
       <c r="G275" t="n">
-        <v>0.1691761376073505</v>
+        <v>0.1691761376073506</v>
       </c>
       <c r="H275" t="n">
-        <v>0.3965488665516296</v>
+        <v>0.3965488665516297</v>
       </c>
     </row>
     <row r="276">
@@ -9916,7 +9916,7 @@
         <v>-1.27902928903517</v>
       </c>
       <c r="G279" t="n">
-        <v>0.204626707236694</v>
+        <v>0.2046267072366941</v>
       </c>
       <c r="H279" t="n">
         <v>0.4262707464057154</v>
@@ -9953,7 +9953,7 @@
         <v>0.1503261421001502</v>
       </c>
       <c r="H280" t="n">
-        <v>0.3716994062636233</v>
+        <v>0.3716994062636234</v>
       </c>
     </row>
     <row r="281">
